--- a/ClassifierTesterResults/Batch/lrmovement-Parsed_Results_nn.xlsx
+++ b/ClassifierTesterResults/Batch/lrmovement-Parsed_Results_nn.xlsx
@@ -133,34 +133,34 @@
     <t xml:space="preserve">100 </t>
   </si>
   <si>
-    <t>0.6666666666666666</t>
-  </si>
-  <si>
-    <t>0.721394246379635</t>
-  </si>
-  <si>
-    <t>0.7334736251402917</t>
-  </si>
-  <si>
-    <t>0.8316854990583803</t>
-  </si>
-  <si>
-    <t>0.8116472176874862</t>
-  </si>
-  <si>
-    <t>0.8106685146391869</t>
-  </si>
-  <si>
-    <t>0.8330675172780436</t>
-  </si>
-  <si>
-    <t>0.827276073144274</t>
-  </si>
-  <si>
-    <t>0.8135711372393132</t>
-  </si>
-  <si>
-    <t>0.8178814265770787</t>
+    <t>0.6898084291187739</t>
+  </si>
+  <si>
+    <t>0.8241996233521658</t>
+  </si>
+  <si>
+    <t>0.7983019331895737</t>
+  </si>
+  <si>
+    <t>0.7975398407950751</t>
+  </si>
+  <si>
+    <t>0.7966401434992039</t>
+  </si>
+  <si>
+    <t>0.8181762554720937</t>
+  </si>
+  <si>
+    <t>0.8196842345297723</t>
+  </si>
+  <si>
+    <t>0.808350106280176</t>
+  </si>
+  <si>
+    <t>0.8144879690765503</t>
+  </si>
+  <si>
+    <t>0.8195533320350945</t>
   </si>
   <si>
     <t>0.6755555555555557</t>
@@ -223,34 +223,34 @@
     <t>0.7608386776037783</t>
   </si>
   <si>
-    <t>0.0785674201318386</t>
-  </si>
-  <si>
-    <t>0.05529127480109826</t>
-  </si>
-  <si>
-    <t>0.03648063941880103</t>
-  </si>
-  <si>
-    <t>0.03328397702858021</t>
-  </si>
-  <si>
-    <t>0.006655174271024955</t>
-  </si>
-  <si>
-    <t>0.011477483573834971</t>
-  </si>
-  <si>
-    <t>0.010525778773643435</t>
-  </si>
-  <si>
-    <t>0.016354430158010417</t>
-  </si>
-  <si>
-    <t>0.021409401557441563</t>
-  </si>
-  <si>
-    <t>0.015912833584164482</t>
+    <t>0.0717355985211218</t>
+  </si>
+  <si>
+    <t>0.04509860439886848</t>
+  </si>
+  <si>
+    <t>0.042714636824562946</t>
+  </si>
+  <si>
+    <t>0.05596415969493893</t>
+  </si>
+  <si>
+    <t>0.02872993814414031</t>
+  </si>
+  <si>
+    <t>0.019453713193776204</t>
+  </si>
+  <si>
+    <t>0.02366962364553677</t>
+  </si>
+  <si>
+    <t>0.017163278503112164</t>
+  </si>
+  <si>
+    <t>0.03634640424973374</t>
+  </si>
+  <si>
+    <t>0.02240495336865331</t>
   </si>
   <si>
     <t>0.06863753427324668</t>
@@ -313,34 +313,34 @@
     <t>0.006593905537753918</t>
   </si>
   <si>
-    <t>0.6810642658468745</t>
-  </si>
-  <si>
-    <t>0.741945320597006</t>
-  </si>
-  <si>
-    <t>0.7027269666704073</t>
-  </si>
-  <si>
-    <t>0.8365650080256821</t>
-  </si>
-  <si>
-    <t>0.8131652666875878</t>
-  </si>
-  <si>
-    <t>0.811022700802575</t>
-  </si>
-  <si>
-    <t>0.8322515199309796</t>
-  </si>
-  <si>
-    <t>0.8361919389212007</t>
-  </si>
-  <si>
-    <t>0.827209784411277</t>
-  </si>
-  <si>
-    <t>0.8144687914188765</t>
+    <t>0.7069318054151219</t>
+  </si>
+  <si>
+    <t>0.832713790363926</t>
+  </si>
+  <si>
+    <t>0.8038407320632384</t>
+  </si>
+  <si>
+    <t>0.7965705652016133</t>
+  </si>
+  <si>
+    <t>0.787753142897432</t>
+  </si>
+  <si>
+    <t>0.8143881353673201</t>
+  </si>
+  <si>
+    <t>0.8305718167806386</t>
+  </si>
+  <si>
+    <t>0.8053722002826831</t>
+  </si>
+  <si>
+    <t>0.8205948354778245</t>
+  </si>
+  <si>
+    <t>0.8263749815845131</t>
   </si>
   <si>
     <t>0.706846728151076</t>
@@ -403,34 +403,34 @@
     <t>0.7653028748052034</t>
   </si>
   <si>
-    <t>0.6628024787351853</t>
-  </si>
-  <si>
-    <t>0.7181693730123628</t>
-  </si>
-  <si>
-    <t>0.746476299666798</t>
-  </si>
-  <si>
-    <t>0.8273705514686088</t>
-  </si>
-  <si>
-    <t>0.811307979757394</t>
-  </si>
-  <si>
-    <t>0.8103169690553439</t>
-  </si>
-  <si>
-    <t>0.833984751239096</t>
-  </si>
-  <si>
-    <t>0.8213564989927974</t>
-  </si>
-  <si>
-    <t>0.8048928152399447</t>
-  </si>
-  <si>
-    <t>0.8199840446749103</t>
+    <t>0.6965875126646404</t>
+  </si>
+  <si>
+    <t>0.818515476443816</t>
+  </si>
+  <si>
+    <t>0.7987748852787021</t>
+  </si>
+  <si>
+    <t>0.797058645850222</t>
+  </si>
+  <si>
+    <t>0.8019547759876005</t>
+  </si>
+  <si>
+    <t>0.8213694152106037</t>
+  </si>
+  <si>
+    <t>0.8139948839357902</t>
+  </si>
+  <si>
+    <t>0.8130909254790172</t>
+  </si>
+  <si>
+    <t>0.8114427548172953</t>
+  </si>
+  <si>
+    <t>0.8166368648043079</t>
   </si>
   <si>
     <t>0.6758537630951424</t>
@@ -493,34 +493,34 @@
     <t>0.7581825018971312</t>
   </si>
   <si>
-    <t>0.6715677249094751</t>
-  </si>
-  <si>
-    <t>0.7292524697838433</t>
-  </si>
-  <si>
-    <t>0.7229568510336971</t>
-  </si>
-  <si>
-    <t>0.8306449341557421</t>
-  </si>
-  <si>
-    <t>0.8119769259798372</t>
-  </si>
-  <si>
-    <t>0.8100951859694824</t>
-  </si>
-  <si>
-    <t>0.8330250384092533</t>
-  </si>
-  <si>
-    <t>0.8286145247926152</t>
-  </si>
-  <si>
-    <t>0.8156052711891459</t>
-  </si>
-  <si>
-    <t>0.8169903703440405</t>
+    <t>0.6959947299077733</t>
+  </si>
+  <si>
+    <t>0.8242968088550837</t>
+  </si>
+  <si>
+    <t>0.8007742579112047</t>
+  </si>
+  <si>
+    <t>0.7957984503617423</t>
+  </si>
+  <si>
+    <t>0.7940535063124945</t>
+  </si>
+  <si>
+    <t>0.8177361606842137</t>
+  </si>
+  <si>
+    <t>0.8219888235307188</t>
+  </si>
+  <si>
+    <t>0.8083375367090339</t>
+  </si>
+  <si>
+    <t>0.8154731865835314</t>
+  </si>
+  <si>
+    <t>0.8207004471728109</t>
   </si>
   <si>
     <t>0.6881881353940177</t>
@@ -583,34 +583,34 @@
     <t>0.7616573700472381</t>
   </si>
   <si>
-    <t>0.6662457912457912</t>
-  </si>
-  <si>
-    <t>0.7214463329136164</t>
-  </si>
-  <si>
-    <t>0.7337610128130251</t>
-  </si>
-  <si>
-    <t>0.8317414845109278</t>
-  </si>
-  <si>
-    <t>0.8115220008218612</t>
-  </si>
-  <si>
-    <t>0.810609815197203</t>
-  </si>
-  <si>
-    <t>0.8330723264143808</t>
-  </si>
-  <si>
-    <t>0.8272478103232106</t>
-  </si>
-  <si>
-    <t>0.8136566571207334</t>
-  </si>
-  <si>
-    <t>0.8179159759523974</t>
+    <t>0.6889204481621063</t>
+  </si>
+  <si>
+    <t>0.8245556987106015</t>
+  </si>
+  <si>
+    <t>0.7982488247481376</t>
+  </si>
+  <si>
+    <t>0.7976524851633177</t>
+  </si>
+  <si>
+    <t>0.7966719251474126</t>
+  </si>
+  <si>
+    <t>0.81817824760098</t>
+  </si>
+  <si>
+    <t>0.8197873197159739</t>
+  </si>
+  <si>
+    <t>0.8080888193618601</t>
+  </si>
+  <si>
+    <t>0.8145743087604471</t>
+  </si>
+  <si>
+    <t>0.8195564648845746</t>
   </si>
   <si>
     <t>0.6752700922266139</t>
@@ -673,34 +673,34 @@
     <t>0.7608501196746593</t>
   </si>
   <si>
-    <t>0.7074074074074074</t>
-  </si>
-  <si>
-    <t>0.7421087949433947</t>
-  </si>
-  <si>
-    <t>0.7624298540965208</t>
-  </si>
-  <si>
-    <t>0.8352479598242311</t>
-  </si>
-  <si>
-    <t>0.8018622649495132</t>
-  </si>
-  <si>
-    <t>0.8056222095262279</t>
-  </si>
-  <si>
-    <t>0.8266879319510898</t>
-  </si>
-  <si>
-    <t>0.8244982953664962</t>
-  </si>
-  <si>
-    <t>0.8238838751174078</t>
-  </si>
-  <si>
-    <t>0.8167665491578534</t>
+    <t>0.6475095785440613</t>
+  </si>
+  <si>
+    <t>0.805216572504708</t>
+  </si>
+  <si>
+    <t>0.7892622857791396</t>
+  </si>
+  <si>
+    <t>0.7996255677412207</t>
+  </si>
+  <si>
+    <t>0.8061265292137776</t>
+  </si>
+  <si>
+    <t>0.8192665360106199</t>
+  </si>
+  <si>
+    <t>0.8270886044627463</t>
+  </si>
+  <si>
+    <t>0.8120245474741281</t>
+  </si>
+  <si>
+    <t>0.8209288131831549</t>
+  </si>
+  <si>
+    <t>0.8296025498462031</t>
   </si>
   <si>
     <t>0.6444444444444445</t>
@@ -763,34 +763,34 @@
     <t>0.7583867157782146</t>
   </si>
   <si>
-    <t>0.045662325947918365</t>
-  </si>
-  <si>
-    <t>0.01919910679733583</t>
-  </si>
-  <si>
-    <t>0.012119718181203583</t>
-  </si>
-  <si>
-    <t>0.007012941505757656</t>
-  </si>
-  <si>
-    <t>0.029875444359603983</t>
-  </si>
-  <si>
-    <t>0.006419664290009631</t>
-  </si>
-  <si>
-    <t>0.02519509965140415</t>
-  </si>
-  <si>
-    <t>0.014958780846405013</t>
-  </si>
-  <si>
-    <t>0.028554723305040754</t>
-  </si>
-  <si>
-    <t>0.014179874046902163</t>
+    <t>0.08383190793247247</t>
+  </si>
+  <si>
+    <t>0.03487063338441977</t>
+  </si>
+  <si>
+    <t>0.03248930038822656</t>
+  </si>
+  <si>
+    <t>0.03284628311775477</t>
+  </si>
+  <si>
+    <t>0.04558032604976122</t>
+  </si>
+  <si>
+    <t>0.025229783693362803</t>
+  </si>
+  <si>
+    <t>0.013439678117475127</t>
+  </si>
+  <si>
+    <t>0.015777061381129935</t>
+  </si>
+  <si>
+    <t>0.01989845312950155</t>
+  </si>
+  <si>
+    <t>0.01933645489214052</t>
   </si>
   <si>
     <t>0.055332887102172136</t>
@@ -853,34 +853,34 @@
     <t>0.010303824522972588</t>
   </si>
   <si>
-    <t>0.6893061045234958</t>
-  </si>
-  <si>
-    <t>0.7425753085865446</t>
-  </si>
-  <si>
-    <t>0.7776717914188457</t>
-  </si>
-  <si>
-    <t>0.834210807918673</t>
-  </si>
-  <si>
-    <t>0.7679146161448028</t>
-  </si>
-  <si>
-    <t>0.7772917857823519</t>
-  </si>
-  <si>
-    <t>0.8312472196384518</t>
-  </si>
-  <si>
-    <t>0.8567251467072753</t>
-  </si>
-  <si>
-    <t>0.823063847429519</t>
-  </si>
-  <si>
-    <t>0.8138070523738019</t>
+    <t>0.6600157285698236</t>
+  </si>
+  <si>
+    <t>0.8415005146388331</t>
+  </si>
+  <si>
+    <t>0.7961728439222044</t>
+  </si>
+  <si>
+    <t>0.8165335788631405</t>
+  </si>
+  <si>
+    <t>0.8210185961639404</t>
+  </si>
+  <si>
+    <t>0.8084253086875185</t>
+  </si>
+  <si>
+    <t>0.8427519811287919</t>
+  </si>
+  <si>
+    <t>0.8136577768105022</t>
+  </si>
+  <si>
+    <t>0.8273818059835876</t>
+  </si>
+  <si>
+    <t>0.8286722084648531</t>
   </si>
   <si>
     <t>0.6675318401405357</t>
@@ -943,34 +943,34 @@
     <t>0.7553805329044404</t>
   </si>
   <si>
-    <t>0.718985795283449</t>
-  </si>
-  <si>
-    <t>0.752086602731764</t>
-  </si>
-  <si>
-    <t>0.7558079005728652</t>
-  </si>
-  <si>
-    <t>0.8338812753783684</t>
-  </si>
-  <si>
-    <t>0.8240755347886507</t>
-  </si>
-  <si>
-    <t>0.8225526068134764</t>
-  </si>
-  <si>
-    <t>0.8259308482830715</t>
-  </si>
-  <si>
-    <t>0.8042073765679035</t>
-  </si>
-  <si>
-    <t>0.8246684328915771</t>
-  </si>
-  <si>
-    <t>0.8189595262565458</t>
+    <t>0.6458663295588231</t>
+  </si>
+  <si>
+    <t>0.7837463908640379</t>
+  </si>
+  <si>
+    <t>0.7874063195475453</t>
+  </si>
+  <si>
+    <t>0.7870992708842568</t>
+  </si>
+  <si>
+    <t>0.7998810004298187</t>
+  </si>
+  <si>
+    <t>0.8279109720096216</t>
+  </si>
+  <si>
+    <t>0.818242348695357</t>
+  </si>
+  <si>
+    <t>0.8126149744009794</t>
+  </si>
+  <si>
+    <t>0.8176326731029968</t>
+  </si>
+  <si>
+    <t>0.8320029128614561</t>
   </si>
   <si>
     <t>0.6467432567432567</t>
@@ -1033,34 +1033,34 @@
     <t>0.7597410550783307</t>
   </si>
   <si>
-    <t>0.6977631216883893</t>
-  </si>
-  <si>
-    <t>0.744169603620067</t>
-  </si>
-  <si>
-    <t>0.7645392894329731</t>
-  </si>
-  <si>
-    <t>0.8334483754891918</t>
-  </si>
-  <si>
-    <t>0.7948209608879687</t>
-  </si>
-  <si>
-    <t>0.7992585536680871</t>
-  </si>
-  <si>
-    <t>0.8280826383740396</t>
-  </si>
-  <si>
-    <t>0.8294445698255369</t>
-  </si>
-  <si>
-    <t>0.8228232935606039</t>
-  </si>
-  <si>
-    <t>0.8156368988482946</t>
+    <t>0.6453804998927433</t>
+  </si>
+  <si>
+    <t>0.8099925011353533</t>
+  </si>
+  <si>
+    <t>0.791240605829033</t>
+  </si>
+  <si>
+    <t>0.799798872676479</t>
+  </si>
+  <si>
+    <t>0.8082493478404716</t>
+  </si>
+  <si>
+    <t>0.8178474996599638</t>
+  </si>
+  <si>
+    <t>0.8299837403485426</t>
+  </si>
+  <si>
+    <t>0.8125713193584293</t>
+  </si>
+  <si>
+    <t>0.8223533324057412</t>
+  </si>
+  <si>
+    <t>0.8291222345095735</t>
   </si>
   <si>
     <t>0.6484912006480634</t>
@@ -1123,34 +1123,34 @@
     <t>0.7571353355718018</t>
   </si>
   <si>
-    <t>0.7083077148294539</t>
-  </si>
-  <si>
-    <t>0.742801203533193</t>
-  </si>
-  <si>
-    <t>0.7631761539912869</t>
-  </si>
-  <si>
-    <t>0.8352352257204432</t>
-  </si>
-  <si>
-    <t>0.8016657090625361</t>
-  </si>
-  <si>
-    <t>0.8055074831895483</t>
-  </si>
-  <si>
-    <t>0.826777616140865</t>
-  </si>
-  <si>
-    <t>0.8245612965451986</t>
-  </si>
-  <si>
-    <t>0.8239667333106118</t>
-  </si>
-  <si>
-    <t>0.8168343264217931</t>
+    <t>0.6473816016586492</t>
+  </si>
+  <si>
+    <t>0.8053910504759518</t>
+  </si>
+  <si>
+    <t>0.7892864822656401</t>
+  </si>
+  <si>
+    <t>0.7993095072769384</t>
+  </si>
+  <si>
+    <t>0.8062959326177157</t>
+  </si>
+  <si>
+    <t>0.8193344560748926</t>
+  </si>
+  <si>
+    <t>0.8270349251560699</t>
+  </si>
+  <si>
+    <t>0.8117628674954492</t>
+  </si>
+  <si>
+    <t>0.8209499478290769</t>
+  </si>
+  <si>
+    <t>0.8296288800873223</t>
   </si>
   <si>
     <t>0.6442555994729908</t>
@@ -1213,34 +1213,34 @@
     <t>0.758369377762017</t>
   </si>
   <si>
-    <t>0.6296296296296297</t>
-  </si>
-  <si>
-    <t>0.6871019763188085</t>
-  </si>
-  <si>
-    <t>0.7375420875420876</t>
-  </si>
-  <si>
-    <t>0.7839296924042687</t>
-  </si>
-  <si>
-    <t>0.7802114194731645</t>
-  </si>
-  <si>
-    <t>0.7784268017144296</t>
-  </si>
-  <si>
-    <t>0.8038277511961723</t>
-  </si>
-  <si>
-    <t>0.7975980164264683</t>
-  </si>
-  <si>
-    <t>0.7961534400407451</t>
-  </si>
-  <si>
-    <t>0.7974460915765264</t>
+    <t>0.5704214559386973</t>
+  </si>
+  <si>
+    <t>0.7393408662900188</t>
+  </si>
+  <si>
+    <t>0.7773268263155904</t>
+  </si>
+  <si>
+    <t>0.7812733228884774</t>
+  </si>
+  <si>
+    <t>0.7769797851542817</t>
+  </si>
+  <si>
+    <t>0.7830853890737137</t>
+  </si>
+  <si>
+    <t>0.7935019087193</t>
+  </si>
+  <si>
+    <t>0.7873038027597389</t>
+  </si>
+  <si>
+    <t>0.7918798202297064</t>
+  </si>
+  <si>
+    <t>0.8038756372138339</t>
   </si>
   <si>
     <t>0.5111111111111111</t>
@@ -1303,34 +1303,34 @@
     <t>0.7344572797324476</t>
   </si>
   <si>
-    <t>0.07046776885348313</t>
-  </si>
-  <si>
-    <t>0.03022999250510891</t>
-  </si>
-  <si>
-    <t>0.013740921836640978</t>
-  </si>
-  <si>
-    <t>0.00835244821794075</t>
-  </si>
-  <si>
-    <t>0.0182004634152642</t>
-  </si>
-  <si>
-    <t>0.03944580031638494</t>
-  </si>
-  <si>
-    <t>0.010336109566838713</t>
-  </si>
-  <si>
-    <t>0.01294618411613078</t>
-  </si>
-  <si>
-    <t>0.0264477667592122</t>
-  </si>
-  <si>
-    <t>0.010560998561355225</t>
+    <t>0.09756610003652749</t>
+  </si>
+  <si>
+    <t>0.07025129348207734</t>
+  </si>
+  <si>
+    <t>0.02248825850586276</t>
+  </si>
+  <si>
+    <t>0.0434828925002262</t>
+  </si>
+  <si>
+    <t>0.03425511683581</t>
+  </si>
+  <si>
+    <t>0.04307587126170921</t>
+  </si>
+  <si>
+    <t>0.02188095228981264</t>
+  </si>
+  <si>
+    <t>0.030282996637889543</t>
+  </si>
+  <si>
+    <t>0.01949896858595414</t>
+  </si>
+  <si>
+    <t>0.020683583872549195</t>
   </si>
   <si>
     <t>0.035136418446315335</t>
@@ -1393,34 +1393,34 @@
     <t>0.002725134351533368</t>
   </si>
   <si>
-    <t>0.6013321622017274</t>
-  </si>
-  <si>
-    <t>0.6903026748532367</t>
-  </si>
-  <si>
-    <t>0.8175288968690383</t>
-  </si>
-  <si>
-    <t>0.7848796147672553</t>
-  </si>
-  <si>
-    <t>0.7683681611974408</t>
-  </si>
-  <si>
-    <t>0.7697536158227982</t>
-  </si>
-  <si>
-    <t>0.7899057710195333</t>
-  </si>
-  <si>
-    <t>0.8252021341295093</t>
-  </si>
-  <si>
-    <t>0.7765298507462687</t>
-  </si>
-  <si>
-    <t>0.7927694972683836</t>
+    <t>0.6918570947084597</t>
+  </si>
+  <si>
+    <t>0.8144094568309989</t>
+  </si>
+  <si>
+    <t>0.7762130386427062</t>
+  </si>
+  <si>
+    <t>0.7666585876012068</t>
+  </si>
+  <si>
+    <t>0.7724656355983184</t>
+  </si>
+  <si>
+    <t>0.7845186073469671</t>
+  </si>
+  <si>
+    <t>0.8044701174131156</t>
+  </si>
+  <si>
+    <t>0.7980301602423502</t>
+  </si>
+  <si>
+    <t>0.79024029039981</t>
+  </si>
+  <si>
+    <t>0.8071720617984856</t>
   </si>
   <si>
     <t>0.44068072024593763</t>
@@ -1483,34 +1483,34 @@
     <t>0.7322271859848136</t>
   </si>
   <si>
-    <t>0.6639828234031132</t>
-  </si>
-  <si>
-    <t>0.6972986412765273</t>
-  </si>
-  <si>
-    <t>0.7033998839483355</t>
-  </si>
-  <si>
-    <t>0.7817275970217147</t>
-  </si>
-  <si>
-    <t>0.7883003705158061</t>
-  </si>
-  <si>
-    <t>0.7858283489461283</t>
-  </si>
-  <si>
-    <t>0.8134689065723548</t>
-  </si>
-  <si>
-    <t>0.7815672514619884</t>
-  </si>
-  <si>
-    <t>0.8086529402891142</t>
-  </si>
-  <si>
-    <t>0.7999089988725524</t>
+    <t>0.5626495056253953</t>
+  </si>
+  <si>
+    <t>0.7062259590497526</t>
+  </si>
+  <si>
+    <t>0.7805945006891287</t>
+  </si>
+  <si>
+    <t>0.7881368030717253</t>
+  </si>
+  <si>
+    <t>0.7805881469037056</t>
+  </si>
+  <si>
+    <t>0.7835860203355506</t>
+  </si>
+  <si>
+    <t>0.7880820789084945</t>
+  </si>
+  <si>
+    <t>0.7831265411978318</t>
+  </si>
+  <si>
+    <t>0.7945265516277937</t>
+  </si>
+  <si>
+    <t>0.802803836845236</t>
   </si>
   <si>
     <t>0.518078431372549</t>
@@ -1573,34 +1573,34 @@
     <t>0.7355538424517258</t>
   </si>
   <si>
-    <t>0.616689246826233</t>
-  </si>
-  <si>
-    <t>0.6888204183784294</t>
-  </si>
-  <si>
-    <t>0.7561153766050674</t>
-  </si>
-  <si>
-    <t>0.781221232847249</t>
-  </si>
-  <si>
-    <t>0.777852991391105</t>
-  </si>
-  <si>
-    <t>0.7768651679559732</t>
-  </si>
-  <si>
-    <t>0.8009851218569569</t>
-  </si>
-  <si>
-    <t>0.8027880901832072</t>
-  </si>
-  <si>
-    <t>0.7898902159369315</t>
-  </si>
-  <si>
-    <t>0.7963092893751504</t>
+    <t>0.6141405673893728</t>
+  </si>
+  <si>
+    <t>0.7562557525086961</t>
+  </si>
+  <si>
+    <t>0.7777799100470818</t>
+  </si>
+  <si>
+    <t>0.7761851668226771</t>
+  </si>
+  <si>
+    <t>0.7756927400979131</t>
+  </si>
+  <si>
+    <t>0.7835009566058833</t>
+  </si>
+  <si>
+    <t>0.7959589545691971</t>
+  </si>
+  <si>
+    <t>0.7897989256325813</t>
+  </si>
+  <si>
+    <t>0.7919149143292079</t>
+  </si>
+  <si>
+    <t>0.8040385692146893</t>
   </si>
   <si>
     <t>0.4651664384328519</t>
@@ -1663,34 +1663,34 @@
     <t>0.733581684008863</t>
   </si>
   <si>
-    <t>0.6318840579710144</t>
-  </si>
-  <si>
-    <t>0.6880462481999164</t>
-  </si>
-  <si>
-    <t>0.7379989608807104</t>
-  </si>
-  <si>
-    <t>0.7839361136844033</t>
-  </si>
-  <si>
-    <t>0.7802228801204919</t>
-  </si>
-  <si>
-    <t>0.7782815565192163</t>
-  </si>
-  <si>
-    <t>0.8039325484011997</t>
-  </si>
-  <si>
-    <t>0.797648608423411</t>
-  </si>
-  <si>
-    <t>0.7962582547752168</t>
-  </si>
-  <si>
-    <t>0.7974433871493888</t>
+    <t>0.5706255170511996</t>
+  </si>
+  <si>
+    <t>0.7398012049025307</t>
+  </si>
+  <si>
+    <t>0.7770444056472992</t>
+  </si>
+  <si>
+    <t>0.7814339047551725</t>
+  </si>
+  <si>
+    <t>0.7770011947155157</t>
+  </si>
+  <si>
+    <t>0.783022970401981</t>
+  </si>
+  <si>
+    <t>0.7935180934390903</t>
+  </si>
+  <si>
+    <t>0.7870198771345951</t>
+  </si>
+  <si>
+    <t>0.7919386978937761</t>
+  </si>
+  <si>
+    <t>0.8039202083358556</t>
   </si>
   <si>
     <t>0.5118050065876153</t>
@@ -1753,34 +1753,34 @@
     <t>0.734465965532791</t>
   </si>
   <si>
-    <t>0.6259259259259259</t>
-  </si>
-  <si>
-    <t>0.6420784899452345</t>
-  </si>
-  <si>
-    <t>0.7499158249158248</t>
-  </si>
-  <si>
-    <t>0.7763653483992466</t>
-  </si>
-  <si>
-    <t>0.782498941894915</t>
-  </si>
-  <si>
-    <t>0.7738802250482566</t>
-  </si>
-  <si>
-    <t>0.8320042530568846</t>
-  </si>
-  <si>
-    <t>0.8425848442584845</t>
-  </si>
-  <si>
-    <t>0.8164642869713025</t>
-  </si>
-  <si>
-    <t>0.8443222654092218</t>
+    <t>0.5305747126436782</t>
+  </si>
+  <si>
+    <t>0.7395291902071562</t>
+  </si>
+  <si>
+    <t>0.77193999924337</t>
+  </si>
+  <si>
+    <t>0.795138869106965</t>
+  </si>
+  <si>
+    <t>0.7689052945563013</t>
+  </si>
+  <si>
+    <t>0.8006006690891507</t>
+  </si>
+  <si>
+    <t>0.8049975789106224</t>
+  </si>
+  <si>
+    <t>0.8069012559916893</t>
+  </si>
+  <si>
+    <t>0.8226627087610275</t>
+  </si>
+  <si>
+    <t>0.8336180813931033</t>
   </si>
   <si>
     <t>0.52</t>
@@ -1843,34 +1843,34 @@
     <t>0.7353312393133422</t>
   </si>
   <si>
-    <t>0.05543196128553985</t>
-  </si>
-  <si>
-    <t>0.042060406409763884</t>
-  </si>
-  <si>
-    <t>0.014489040066280134</t>
-  </si>
-  <si>
-    <t>0.02683874614452925</t>
-  </si>
-  <si>
-    <t>0.020461911226204884</t>
-  </si>
-  <si>
-    <t>0.01089998609563819</t>
-  </si>
-  <si>
-    <t>0.01237687052293759</t>
-  </si>
-  <si>
-    <t>0.024525934028604948</t>
-  </si>
-  <si>
-    <t>0.022405939333291425</t>
-  </si>
-  <si>
-    <t>0.003924392476746321</t>
+    <t>0.04722843523822752</t>
+  </si>
+  <si>
+    <t>0.048226457007688364</t>
+  </si>
+  <si>
+    <t>0.032542740871986615</t>
+  </si>
+  <si>
+    <t>0.029229627688928943</t>
+  </si>
+  <si>
+    <t>0.023796441547192213</t>
+  </si>
+  <si>
+    <t>0.02541273465296122</t>
+  </si>
+  <si>
+    <t>0.007217430377518121</t>
+  </si>
+  <si>
+    <t>0.0287915102535964</t>
+  </si>
+  <si>
+    <t>0.015712573902511913</t>
+  </si>
+  <si>
+    <t>0.016606576154048033</t>
   </si>
   <si>
     <t>0.0293131243517176</t>
@@ -1933,34 +1933,34 @@
     <t>0.0125800432430349</t>
   </si>
   <si>
-    <t>0.6364148733713951</t>
-  </si>
-  <si>
-    <t>0.7093215772991055</t>
-  </si>
-  <si>
-    <t>0.8050910859237647</t>
-  </si>
-  <si>
-    <t>0.7466880684858213</t>
-  </si>
-  <si>
-    <t>0.7508318074597216</t>
-  </si>
-  <si>
-    <t>0.8123456790123457</t>
-  </si>
-  <si>
-    <t>0.8449501894015988</t>
-  </si>
-  <si>
-    <t>0.8510647100190161</t>
-  </si>
-  <si>
-    <t>0.8222222222222223</t>
-  </si>
-  <si>
-    <t>0.8531591160439582</t>
+    <t>0.5357982249185484</t>
+  </si>
+  <si>
+    <t>0.7630997499207496</t>
+  </si>
+  <si>
+    <t>0.7535176308961475</t>
+  </si>
+  <si>
+    <t>0.7507503042833504</t>
+  </si>
+  <si>
+    <t>0.7806217424534492</t>
+  </si>
+  <si>
+    <t>0.7976867894277366</t>
+  </si>
+  <si>
+    <t>0.8036797410987935</t>
+  </si>
+  <si>
+    <t>0.8156789986083904</t>
+  </si>
+  <si>
+    <t>0.8155609544758857</t>
+  </si>
+  <si>
+    <t>0.8474591249456553</t>
   </si>
   <si>
     <t>0.5205094422485728</t>
@@ -2023,34 +2023,34 @@
     <t>0.7583921525714485</t>
   </si>
   <si>
-    <t>0.631678281068525</t>
-  </si>
-  <si>
-    <t>0.628295376121463</t>
-  </si>
-  <si>
-    <t>0.7236322726226506</t>
-  </si>
-  <si>
-    <t>0.7995146314925106</t>
-  </si>
-  <si>
-    <t>0.8018591389053435</t>
-  </si>
-  <si>
-    <t>0.75287119663827</t>
-  </si>
-  <si>
-    <t>0.8246337080432079</t>
-  </si>
-  <si>
-    <t>0.8370640937062644</t>
-  </si>
-  <si>
-    <t>0.8169684899763324</t>
-  </si>
-  <si>
-    <t>0.8381755666050487</t>
+    <t>0.5355250328776048</t>
+  </si>
+  <si>
+    <t>0.7314172153682013</t>
+  </si>
+  <si>
+    <t>0.7887191443264723</t>
+  </si>
+  <si>
+    <t>0.8278817191870278</t>
+  </si>
+  <si>
+    <t>0.7616475640749858</t>
+  </si>
+  <si>
+    <t>0.8107553986253218</t>
+  </si>
+  <si>
+    <t>0.8083562998659453</t>
+  </si>
+  <si>
+    <t>0.8059738313706198</t>
+  </si>
+  <si>
+    <t>0.8294621936533947</t>
+  </si>
+  <si>
+    <t>0.8255093803697351</t>
   </si>
   <si>
     <t>0.5217515212581002</t>
@@ -2113,34 +2113,34 @@
     <t>0.7269915518962122</t>
   </si>
   <si>
-    <t>0.6305839508900181</t>
-  </si>
-  <si>
-    <t>0.6657447853042685</t>
-  </si>
-  <si>
-    <t>0.7617659352142111</t>
-  </si>
-  <si>
-    <t>0.7614891007014295</t>
-  </si>
-  <si>
-    <t>0.7752265043948614</t>
-  </si>
-  <si>
-    <t>0.7814656481592781</t>
-  </si>
-  <si>
-    <t>0.834445738593204</t>
-  </si>
-  <si>
-    <t>0.8438652224164164</t>
-  </si>
-  <si>
-    <t>0.8145528811623343</t>
-  </si>
-  <si>
-    <t>0.8455365908553588</t>
+    <t>0.5232668271350513</t>
+  </si>
+  <si>
+    <t>0.743522908383358</t>
+  </si>
+  <si>
+    <t>0.7679243251962365</t>
+  </si>
+  <si>
+    <t>0.7845390324393946</t>
+  </si>
+  <si>
+    <t>0.7707321279710581</t>
+  </si>
+  <si>
+    <t>0.7981783168109962</t>
+  </si>
+  <si>
+    <t>0.8049653987160198</t>
+  </si>
+  <si>
+    <t>0.8091858981282473</t>
+  </si>
+  <si>
+    <t>0.8216985638982711</t>
+  </si>
+  <si>
+    <t>0.836016967880609</t>
   </si>
   <si>
     <t>0.5137985274431058</t>
@@ -2203,34 +2203,34 @@
     <t>0.7406260875491467</t>
   </si>
   <si>
-    <t>0.6259771629336847</t>
-  </si>
-  <si>
-    <t>0.641750455977158</t>
-  </si>
-  <si>
-    <t>0.7504212682098702</t>
-  </si>
-  <si>
-    <t>0.776028872681939</t>
-  </si>
-  <si>
-    <t>0.782700045456727</t>
-  </si>
-  <si>
-    <t>0.7740522096243803</t>
-  </si>
-  <si>
-    <t>0.831924101739255</t>
-  </si>
-  <si>
-    <t>0.8425625254501917</t>
-  </si>
-  <si>
-    <t>0.8167205267486829</t>
-  </si>
-  <si>
-    <t>0.8443528574264444</t>
+    <t>0.5291112336713953</t>
+  </si>
+  <si>
+    <t>0.7401287814778119</t>
+  </si>
+  <si>
+    <t>0.7716055414142028</t>
+  </si>
+  <si>
+    <t>0.7954487478071054</t>
+  </si>
+  <si>
+    <t>0.7688637211021851</t>
+  </si>
+  <si>
+    <t>0.8008396342815367</t>
+  </si>
+  <si>
+    <t>0.804974524073619</t>
+  </si>
+  <si>
+    <t>0.806859656436405</t>
+  </si>
+  <si>
+    <t>0.8226650581492647</t>
+  </si>
+  <si>
+    <t>0.8336507186040742</t>
   </si>
   <si>
     <t>0.5206499780412823</t>
